--- a/compose/sample/sample.xlsx
+++ b/compose/sample/sample.xlsx
@@ -505,7 +505,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G5" sqref="G5:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -513,7 +513,7 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="9.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="79.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.25" style="4" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="4" bestFit="1" customWidth="1"/>
@@ -522,7 +522,7 @@
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
       </c>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -552,7 +552,7 @@
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -565,7 +565,7 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -582,44 +582,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <v>88801001</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="4">
+        <v>88801001</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>88801002</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="4">
+        <v>88801002</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>88801003</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="4">
+        <v>88801003</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>88801005</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" s="4">
+        <v>88801005</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -629,34 +648,38 @@
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="4">
+        <v>88801006</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E10" s="10"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E11" s="10"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E12" s="10"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E13" s="10"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E14" s="10"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E15" s="10"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E16" s="10"/>
       <c r="G16" s="5"/>
     </row>
